--- a/public/files/nedvizhimost-kupina/Семантика.xlsx
+++ b/public/files/nedvizhimost-kupina/Семантика.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Продать квартиру" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">купить недвижимость спб </t>
   </si>
@@ -46,6 +47,18 @@
   </si>
   <si>
     <t>купить квартиру петербурге</t>
+  </si>
+  <si>
+    <t>недвижимость агентство</t>
+  </si>
+  <si>
+    <t>продажа квартира</t>
+  </si>
+  <si>
+    <t>продам квартиру</t>
+  </si>
+  <si>
+    <t>продать квартиру в спб</t>
   </si>
 </sst>
 </file>
@@ -365,7 +378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -449,4 +462,54 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>97250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>24063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/public/files/nedvizhimost-kupina/Семантика.xlsx
+++ b/public/files/nedvizhimost-kupina/Семантика.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Купить квартиру" sheetId="1" r:id="rId1"/>
     <sheet name="Продать квартиру" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/files/nedvizhimost-kupina/Семантика.xlsx
+++ b/public/files/nedvizhimost-kupina/Семантика.xlsx
@@ -469,7 +469,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/files/nedvizhimost-kupina/Семантика.xlsx
+++ b/public/files/nedvizhimost-kupina/Семантика.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Купить квартиру" sheetId="1" r:id="rId1"/>
     <sheet name="Продать квартиру" sheetId="2" r:id="rId2"/>
+    <sheet name="Базовая Купить квартиру дистанц" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t xml:space="preserve">купить недвижимость спб </t>
   </si>
@@ -59,6 +60,114 @@
   </si>
   <si>
     <t>продать квартиру в спб</t>
+  </si>
+  <si>
+    <t>спб</t>
+  </si>
+  <si>
+    <t>питер</t>
+  </si>
+  <si>
+    <t>петербург</t>
+  </si>
+  <si>
+    <t>санкт</t>
+  </si>
+  <si>
+    <t>санкт петербург</t>
+  </si>
+  <si>
+    <t>квартира</t>
+  </si>
+  <si>
+    <t>комната</t>
+  </si>
+  <si>
+    <t>жилье</t>
+  </si>
+  <si>
+    <t>вторичка</t>
+  </si>
+  <si>
+    <t>купить</t>
+  </si>
+  <si>
+    <t>вторичное</t>
+  </si>
+  <si>
+    <t>купить квартира спб</t>
+  </si>
+  <si>
+    <t>купить квартира питер</t>
+  </si>
+  <si>
+    <t>купить квартира петербург</t>
+  </si>
+  <si>
+    <t>купить квартира санкт</t>
+  </si>
+  <si>
+    <t>купить квартира санкт петербург</t>
+  </si>
+  <si>
+    <t>купить комната спб</t>
+  </si>
+  <si>
+    <t>купить комната питер</t>
+  </si>
+  <si>
+    <t>купить комната петербург</t>
+  </si>
+  <si>
+    <t>купить комната санкт</t>
+  </si>
+  <si>
+    <t>купить комната санкт петербург</t>
+  </si>
+  <si>
+    <t>купить жилье спб</t>
+  </si>
+  <si>
+    <t>купить жилье питер</t>
+  </si>
+  <si>
+    <t>купить жилье петербург</t>
+  </si>
+  <si>
+    <t>купить жилье санкт</t>
+  </si>
+  <si>
+    <t>купить жилье санкт петербург</t>
+  </si>
+  <si>
+    <t>вторичка спб</t>
+  </si>
+  <si>
+    <t>вторичка питер</t>
+  </si>
+  <si>
+    <t>вторичка петербург</t>
+  </si>
+  <si>
+    <t>вторичка санкт</t>
+  </si>
+  <si>
+    <t>вторичка санкт петербург</t>
+  </si>
+  <si>
+    <t>вторичное спб</t>
+  </si>
+  <si>
+    <t>вторичное питер</t>
+  </si>
+  <si>
+    <t>вторичное петербург</t>
+  </si>
+  <si>
+    <t>вторичное санкт</t>
+  </si>
+  <si>
+    <t>вторичное санкт петербург</t>
   </si>
 </sst>
 </file>
@@ -468,7 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -512,4 +621,195 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>